--- a/parabolic/2025/08/28/parabolic.xlsx
+++ b/parabolic/2025/08/28/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,16 +482,62 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D2" t="n">
-        <v>181600</v>
+        <v>225000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>5341</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>381</v>
+      </c>
+      <c r="D3" t="n">
+        <v>112700</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>8016</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>636</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1082600</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/28/parabolic.xlsx
+++ b/parabolic/2025/08/28/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D2" t="n">
-        <v>225000</v>
+        <v>371900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D3" t="n">
-        <v>112700</v>
+        <v>149500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>6327</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,16 +528,85 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>636</v>
+        <v>827</v>
       </c>
       <c r="D4" t="n">
-        <v>1082600</v>
+        <v>153000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>6578</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120600</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1197600</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>8016</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>635</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1261000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/28/parabolic.xlsx
+++ b/parabolic/2025/08/28/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D2" t="n">
-        <v>371900</v>
+        <v>438100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D3" t="n">
-        <v>149500</v>
+        <v>175900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D4" t="n">
-        <v>153000</v>
+        <v>248800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D5" t="n">
-        <v>120600</v>
+        <v>142100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>8016</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,39 +574,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>999</v>
+        <v>640</v>
       </c>
       <c r="D6" t="n">
-        <v>1197600</v>
+        <v>1575800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>8016</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>635</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1261000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
